--- a/多核助教成绩单.xlsx
+++ b/多核助教成绩单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="982" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144" tabRatio="982" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="多核" sheetId="15" r:id="rId1"/>
@@ -1076,8 +1076,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1246,19 +1246,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1270,13 +1261,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1291,12 +1291,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1338,7 +1341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1370,9 +1373,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1404,6 +1408,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1579,71 +1584,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:N5"/>
+    <sheetView topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="8" width="8.125" customWidth="1"/>
-    <col min="10" max="10" width="20.125" customWidth="1"/>
-    <col min="11" max="11" width="13.125" customWidth="1"/>
-    <col min="12" max="12" width="11.25" customWidth="1"/>
-    <col min="13" max="13" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="8" width="8.109375" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1668,23 +1673,23 @@
       <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
+    <row r="6" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1699,8 +1704,11 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1715,8 +1723,11 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>172</v>
       </c>
@@ -1731,8 +1742,11 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1747,8 +1761,11 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1763,8 +1780,11 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1779,8 +1799,11 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1795,8 +1818,11 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -1811,8 +1837,11 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1827,8 +1856,11 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L14">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1843,8 +1875,11 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -1859,8 +1894,11 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -1875,8 +1913,11 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1891,8 +1932,11 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1907,8 +1951,11 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L19">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -1923,8 +1970,11 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -1940,7 +1990,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+    <row r="22" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -1955,8 +2005,11 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -1971,8 +2024,11 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -1987,8 +2043,11 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -2003,8 +2062,11 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -2019,8 +2081,11 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
@@ -2035,8 +2100,11 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L27">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
@@ -2051,8 +2119,11 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L28">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>55</v>
       </c>
@@ -2067,8 +2138,11 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L29">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
@@ -2083,8 +2157,11 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L30">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>59</v>
       </c>
@@ -2099,8 +2176,11 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L31">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>61</v>
       </c>
@@ -2115,8 +2195,11 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L32">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
@@ -2131,8 +2214,11 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L33">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>65</v>
       </c>
@@ -2147,8 +2233,11 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L34">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>67</v>
       </c>
@@ -2163,8 +2252,11 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
@@ -2179,8 +2271,11 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L36">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
@@ -2195,8 +2290,11 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L37">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>73</v>
       </c>
@@ -2211,8 +2309,11 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L38">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>75</v>
       </c>
@@ -2228,7 +2329,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+    <row r="40" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>77</v>
       </c>
@@ -2243,8 +2344,11 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L40">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>79</v>
       </c>
@@ -2259,8 +2363,11 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L41">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>81</v>
       </c>
@@ -2275,8 +2382,11 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>83</v>
       </c>
@@ -2291,8 +2401,11 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L43">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>85</v>
       </c>
@@ -2307,8 +2420,11 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L44">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>87</v>
       </c>
@@ -2323,8 +2439,11 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>89</v>
       </c>
@@ -2339,8 +2458,11 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L46">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>91</v>
       </c>
@@ -2355,8 +2477,11 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L47">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>93</v>
       </c>
@@ -2371,8 +2496,11 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L48">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>95</v>
       </c>
@@ -2387,8 +2515,11 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L49">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>97</v>
       </c>
@@ -2403,8 +2534,11 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L50">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>99</v>
       </c>
@@ -2419,8 +2553,11 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>101</v>
       </c>
@@ -2435,8 +2572,11 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L52">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>103</v>
       </c>
@@ -2451,8 +2591,11 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L53">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>105</v>
       </c>
@@ -2467,8 +2610,11 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L54">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>107</v>
       </c>
@@ -2483,8 +2629,11 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L55">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>109</v>
       </c>
@@ -2499,8 +2648,11 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L56">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>111</v>
       </c>
@@ -2515,8 +2667,11 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L57">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>113</v>
       </c>
@@ -2531,8 +2686,11 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>115</v>
       </c>
@@ -2547,8 +2705,11 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L59">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>117</v>
       </c>
@@ -2563,8 +2724,11 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L60">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>119</v>
       </c>
@@ -2579,8 +2743,11 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L61">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>121</v>
       </c>
@@ -2595,8 +2762,11 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L62">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>123</v>
       </c>
@@ -2612,7 +2782,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+    <row r="64" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>125</v>
       </c>
@@ -2627,8 +2797,11 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L64">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>127</v>
       </c>
@@ -2643,8 +2816,11 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L65">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>129</v>
       </c>
@@ -2659,8 +2835,11 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L66">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>131</v>
       </c>
@@ -2675,8 +2854,11 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-    </row>
-    <row r="68" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L67">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>133</v>
       </c>
@@ -2692,7 +2874,7 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+    <row r="69" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>135</v>
       </c>
@@ -2708,7 +2890,7 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+    <row r="70" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>137</v>
       </c>
@@ -2723,8 +2905,11 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L70">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>139</v>
       </c>
@@ -2739,8 +2924,11 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>141</v>
       </c>
@@ -2755,8 +2943,11 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
-    </row>
-    <row r="73" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L72">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>143</v>
       </c>
@@ -2771,8 +2962,11 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
-    </row>
-    <row r="74" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L73">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>145</v>
       </c>
@@ -2787,8 +2981,11 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
-    </row>
-    <row r="75" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L74">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>147</v>
       </c>
@@ -2803,8 +3000,11 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
-    </row>
-    <row r="76" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L75">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>149</v>
       </c>
@@ -2820,7 +3020,7 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+    <row r="77" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>151</v>
       </c>
@@ -2835,8 +3035,11 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L77">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>153</v>
       </c>
@@ -2851,8 +3054,11 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-    </row>
-    <row r="79" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L78">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>155</v>
       </c>
@@ -2867,8 +3073,11 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-    </row>
-    <row r="80" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L79">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>157</v>
       </c>
@@ -2883,8 +3092,11 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
-    </row>
-    <row r="81" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L80">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>159</v>
       </c>
@@ -2899,8 +3111,11 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
-    </row>
-    <row r="82" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L81">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>161</v>
       </c>
@@ -2915,8 +3130,11 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
-    </row>
-    <row r="83" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L82">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>163</v>
       </c>
@@ -2931,8 +3149,11 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
-    </row>
-    <row r="84" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L83">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>165</v>
       </c>
@@ -2947,8 +3168,11 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
-    </row>
-    <row r="85" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>167</v>
       </c>
@@ -2963,8 +3187,11 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-    </row>
-    <row r="86" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L85">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>169</v>
       </c>
@@ -2979,8 +3206,11 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
-    </row>
-    <row r="87" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>174</v>
       </c>
@@ -2995,8 +3225,11 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
-    </row>
-    <row r="88" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L87">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>176</v>
       </c>
@@ -3011,8 +3244,11 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
-    </row>
-    <row r="89" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L88">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>178</v>
       </c>
@@ -3027,8 +3263,11 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
-    </row>
-    <row r="90" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L89">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>180</v>
       </c>
@@ -3043,8 +3282,11 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
-    </row>
-    <row r="91" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L90">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>182</v>
       </c>
@@ -3059,8 +3301,11 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
-    </row>
-    <row r="92" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L91">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>184</v>
       </c>
@@ -3075,8 +3320,11 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
-    </row>
-    <row r="93" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L92">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>186</v>
       </c>
@@ -3092,7 +3340,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+    <row r="94" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>188</v>
       </c>
@@ -3107,8 +3355,11 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
-    </row>
-    <row r="95" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L94">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>190</v>
       </c>
@@ -3123,8 +3374,11 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
-    </row>
-    <row r="96" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L95">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>192</v>
       </c>
@@ -3139,8 +3393,11 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
-    </row>
-    <row r="97" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L96">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>194</v>
       </c>
@@ -3155,8 +3412,11 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
-    </row>
-    <row r="98" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L97">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>196</v>
       </c>
@@ -3171,8 +3431,11 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
-    </row>
-    <row r="99" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L98">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>198</v>
       </c>
@@ -3188,7 +3451,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+    <row r="100" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>200</v>
       </c>
@@ -3204,7 +3467,7 @@
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
     </row>
-    <row r="101" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+    <row r="101" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>202</v>
       </c>
@@ -3219,8 +3482,11 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
-    </row>
-    <row r="102" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L101">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>204</v>
       </c>
@@ -3235,8 +3501,11 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
-    </row>
-    <row r="103" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L102">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>206</v>
       </c>
@@ -3251,8 +3520,11 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
-    </row>
-    <row r="104" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L103">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>208</v>
       </c>
@@ -3268,7 +3540,7 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
     </row>
-    <row r="105" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+    <row r="105" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>210</v>
       </c>
@@ -3283,8 +3555,11 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
-    </row>
-    <row r="106" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L105">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>212</v>
       </c>
@@ -3299,8 +3574,11 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
-    </row>
-    <row r="107" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L106">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>214</v>
       </c>
@@ -3315,8 +3593,11 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
-    </row>
-    <row r="108" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L107">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>216</v>
       </c>
@@ -3331,8 +3612,11 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
-    </row>
-    <row r="109" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L108">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>218</v>
       </c>
@@ -3347,8 +3631,11 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
-    </row>
-    <row r="110" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L109">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>220</v>
       </c>
@@ -3363,8 +3650,11 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
-    </row>
-    <row r="111" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L110">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>222</v>
       </c>
@@ -3379,8 +3669,11 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
-    </row>
-    <row r="112" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L111">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>224</v>
       </c>
@@ -3396,7 +3689,7 @@
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
     </row>
-    <row r="113" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+    <row r="113" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>226</v>
       </c>
@@ -3411,8 +3704,11 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
-    </row>
-    <row r="114" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L113">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>228</v>
       </c>
@@ -3427,8 +3723,11 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
-    </row>
-    <row r="115" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L114">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>230</v>
       </c>
@@ -3443,8 +3742,11 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
-    </row>
-    <row r="116" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>232</v>
       </c>
@@ -3459,8 +3761,11 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
-    </row>
-    <row r="117" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L116">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>234</v>
       </c>
@@ -3475,8 +3780,11 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
-    </row>
-    <row r="118" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L117">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>236</v>
       </c>
@@ -3491,8 +3799,11 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
-    </row>
-    <row r="119" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L118">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>238</v>
       </c>
@@ -3507,8 +3818,11 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
-    </row>
-    <row r="120" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L119">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>240</v>
       </c>
@@ -3523,8 +3837,11 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
-    </row>
-    <row r="121" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L120">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>242</v>
       </c>
@@ -3539,8 +3856,11 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
-    </row>
-    <row r="122" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L121">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>244</v>
       </c>
@@ -3555,8 +3875,11 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
-    </row>
-    <row r="123" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L122">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>246</v>
       </c>
@@ -3571,8 +3894,11 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
-    </row>
-    <row r="124" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L123">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>248</v>
       </c>
@@ -3587,8 +3913,11 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
-    </row>
-    <row r="125" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L124">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>250</v>
       </c>
@@ -3603,8 +3932,11 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
-    </row>
-    <row r="126" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L125">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>252</v>
       </c>
@@ -3619,8 +3951,11 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
-    </row>
-    <row r="127" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L126">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>254</v>
       </c>
@@ -3635,8 +3970,11 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
-    </row>
-    <row r="128" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L127">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>256</v>
       </c>
@@ -3651,8 +3989,11 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
-    </row>
-    <row r="129" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L128">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>258</v>
       </c>
@@ -3667,8 +4008,11 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
-    </row>
-    <row r="130" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L129">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>260</v>
       </c>
@@ -3683,8 +4027,11 @@
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
-    </row>
-    <row r="131" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L130">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>262</v>
       </c>
@@ -3699,8 +4046,11 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
-    </row>
-    <row r="132" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L131">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>264</v>
       </c>
@@ -3715,8 +4065,11 @@
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
-    </row>
-    <row r="133" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L132">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>266</v>
       </c>
@@ -3731,8 +4084,11 @@
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
-    </row>
-    <row r="134" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L133">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>268</v>
       </c>
@@ -3747,8 +4103,11 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
-    </row>
-    <row r="135" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L134">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>270</v>
       </c>
@@ -3764,7 +4123,7 @@
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
     </row>
-    <row r="136" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+    <row r="136" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>272</v>
       </c>
@@ -3779,8 +4138,11 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
-    </row>
-    <row r="137" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L136">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>274</v>
       </c>
@@ -3795,8 +4157,11 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
-    </row>
-    <row r="138" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L137">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>276</v>
       </c>
@@ -3811,8 +4176,11 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
-    </row>
-    <row r="139" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L138">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>278</v>
       </c>
@@ -3827,8 +4195,11 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
-    </row>
-    <row r="140" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L139">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>280</v>
       </c>
@@ -3843,8 +4214,11 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
-    </row>
-    <row r="141" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L140">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>282</v>
       </c>
@@ -3859,8 +4233,11 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
-    </row>
-    <row r="142" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L141">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>284</v>
       </c>
@@ -3875,8 +4252,11 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
-    </row>
-    <row r="143" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L142">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>286</v>
       </c>
@@ -3891,8 +4271,11 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
-    </row>
-    <row r="144" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L143">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>288</v>
       </c>
@@ -3907,8 +4290,11 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
-    </row>
-    <row r="145" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L144">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>290</v>
       </c>
@@ -3923,8 +4309,11 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
-    </row>
-    <row r="146" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L145">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>292</v>
       </c>
@@ -3939,8 +4328,11 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
-    </row>
-    <row r="147" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L146">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>294</v>
       </c>
@@ -3955,8 +4347,11 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
-    </row>
-    <row r="148" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L147">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>296</v>
       </c>
@@ -3971,8 +4366,11 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
-    </row>
-    <row r="149" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L148">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>298</v>
       </c>
@@ -3987,8 +4385,11 @@
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
-    </row>
-    <row r="150" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L149">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>300</v>
       </c>
@@ -4003,8 +4404,11 @@
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
-    </row>
-    <row r="151" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L150">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>302</v>
       </c>
@@ -4019,8 +4423,11 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
-    </row>
-    <row r="152" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L151">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>304</v>
       </c>
@@ -4035,8 +4442,11 @@
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
-    </row>
-    <row r="153" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L152">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>306</v>
       </c>
@@ -4051,8 +4461,11 @@
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
-    </row>
-    <row r="154" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L153">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>308</v>
       </c>
@@ -4067,8 +4480,11 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
-    </row>
-    <row r="155" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L154">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>310</v>
       </c>
@@ -4083,8 +4499,11 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
-    </row>
-    <row r="156" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L155">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>312</v>
       </c>
@@ -4099,8 +4518,11 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
-    </row>
-    <row r="157" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L156">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>314</v>
       </c>
@@ -4115,50 +4537,53 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
-    </row>
-    <row r="158" spans="1:8" ht="18" customHeight="1">
-      <c r="A158" s="9"/>
-      <c r="B158" s="9"/>
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
-      <c r="F158" s="9"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="9"/>
-    </row>
-    <row r="159" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A159" s="10" t="s">
+      <c r="L157">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+    </row>
+    <row r="159" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B159" s="10"/>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10"/>
-      <c r="H159" s="10"/>
-    </row>
-    <row r="160" spans="1:8" ht="18" customHeight="1">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
-      <c r="E160" s="11"/>
-      <c r="F160" s="11"/>
-      <c r="G160" s="11"/>
-      <c r="H160" s="11"/>
-    </row>
-    <row r="161" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A161" s="4" t="s">
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+    </row>
+    <row r="160" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+    </row>
+    <row r="161" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4177,70 +4602,70 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="8" width="8.125" customWidth="1"/>
-    <col min="10" max="10" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="8" width="8.109375" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="13.625" customWidth="1"/>
-    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -4265,23 +4690,23 @@
       <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
+    <row r="6" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>335</v>
       </c>
@@ -4296,8 +4721,11 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>338</v>
       </c>
@@ -4312,8 +4740,11 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>317</v>
       </c>
@@ -4329,7 +4760,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
+    <row r="9" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>340</v>
       </c>
@@ -4345,7 +4776,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>320</v>
       </c>
@@ -4360,8 +4791,11 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>322</v>
       </c>
@@ -4376,8 +4810,11 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>324</v>
       </c>
@@ -4392,8 +4829,11 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>326</v>
       </c>
@@ -4409,7 +4849,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>328</v>
       </c>
@@ -4424,8 +4864,11 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
+      <c r="L14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>330</v>
       </c>
@@ -4441,7 +4884,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>332</v>
       </c>
@@ -4457,49 +4900,49 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A18" s="10" t="s">
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A20" s="4" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/多核助教成绩单.xlsx
+++ b/多核助教成绩单.xlsx
@@ -1587,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N161"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1707,6 +1707,9 @@
       <c r="L6">
         <v>80</v>
       </c>
+      <c r="M6">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -1726,6 +1729,9 @@
       <c r="L7">
         <v>75</v>
       </c>
+      <c r="M7">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -1745,6 +1751,9 @@
       <c r="L8">
         <v>75</v>
       </c>
+      <c r="M8">
+        <v>90</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -1763,6 +1772,9 @@
       <c r="H9" s="2"/>
       <c r="L9">
         <v>70</v>
+      </c>
+      <c r="M9">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1783,6 +1795,9 @@
       <c r="L10">
         <v>65</v>
       </c>
+      <c r="M10">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1802,6 +1817,9 @@
       <c r="L11">
         <v>60</v>
       </c>
+      <c r="M11">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1821,6 +1839,9 @@
       <c r="L12">
         <v>65</v>
       </c>
+      <c r="M12">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -1840,6 +1861,9 @@
       <c r="L13">
         <v>55</v>
       </c>
+      <c r="M13">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -1859,6 +1883,9 @@
       <c r="L14">
         <v>85</v>
       </c>
+      <c r="M14">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1878,6 +1905,9 @@
       <c r="L15">
         <v>80</v>
       </c>
+      <c r="M15">
+        <v>70</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -1897,8 +1927,11 @@
       <c r="L16">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -1916,8 +1949,11 @@
       <c r="L17">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1935,8 +1971,11 @@
       <c r="L18">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1954,8 +1993,11 @@
       <c r="L19">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -1973,8 +2015,11 @@
       <c r="L20">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -1990,7 +2035,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -2008,8 +2053,11 @@
       <c r="L22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -2027,8 +2075,11 @@
       <c r="L23">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -2046,8 +2097,11 @@
       <c r="L24">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -2065,8 +2119,11 @@
       <c r="L25">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -2084,8 +2141,11 @@
       <c r="L26">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
@@ -2103,8 +2163,11 @@
       <c r="L27">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
@@ -2122,8 +2185,11 @@
       <c r="L28">
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>55</v>
       </c>
@@ -2141,8 +2207,11 @@
       <c r="L29">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
@@ -2160,8 +2229,11 @@
       <c r="L30">
         <v>90</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>59</v>
       </c>
@@ -2179,8 +2251,11 @@
       <c r="L31">
         <v>70</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>61</v>
       </c>
@@ -2198,8 +2273,11 @@
       <c r="L32">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
@@ -2217,8 +2295,11 @@
       <c r="L33">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>65</v>
       </c>
@@ -2236,8 +2317,11 @@
       <c r="L34">
         <v>75</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>67</v>
       </c>
@@ -2255,8 +2339,11 @@
       <c r="L35">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
@@ -2274,8 +2361,11 @@
       <c r="L36">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
@@ -2293,8 +2383,11 @@
       <c r="L37">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>73</v>
       </c>
@@ -2312,8 +2405,11 @@
       <c r="L38">
         <v>65</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M38">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>75</v>
       </c>
@@ -2329,7 +2425,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>77</v>
       </c>
@@ -2347,8 +2443,11 @@
       <c r="L40">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M40">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>79</v>
       </c>
@@ -2366,8 +2465,11 @@
       <c r="L41">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M41">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>81</v>
       </c>
@@ -2385,8 +2487,11 @@
       <c r="L42">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M42">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>83</v>
       </c>
@@ -2404,8 +2509,11 @@
       <c r="L43">
         <v>65</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>85</v>
       </c>
@@ -2423,8 +2531,11 @@
       <c r="L44">
         <v>60</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M44">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>87</v>
       </c>
@@ -2442,8 +2553,11 @@
       <c r="L45">
         <v>95</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>89</v>
       </c>
@@ -2461,8 +2575,11 @@
       <c r="L46">
         <v>80</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M46">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>91</v>
       </c>
@@ -2480,8 +2597,11 @@
       <c r="L47">
         <v>65</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M47">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>93</v>
       </c>
@@ -2499,8 +2619,11 @@
       <c r="L48">
         <v>70</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>95</v>
       </c>
@@ -2518,8 +2641,11 @@
       <c r="L49">
         <v>85</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>97</v>
       </c>
@@ -2537,8 +2663,11 @@
       <c r="L50">
         <v>80</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M50">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>99</v>
       </c>
@@ -2556,8 +2685,11 @@
       <c r="L51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M51">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>101</v>
       </c>
@@ -2575,8 +2707,11 @@
       <c r="L52">
         <v>75</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M52">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>103</v>
       </c>
@@ -2594,8 +2729,11 @@
       <c r="L53">
         <v>70</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>105</v>
       </c>
@@ -2613,8 +2751,11 @@
       <c r="L54">
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M54">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>107</v>
       </c>
@@ -2632,8 +2773,11 @@
       <c r="L55">
         <v>90</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M55">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>109</v>
       </c>
@@ -2651,8 +2795,11 @@
       <c r="L56">
         <v>60</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M56">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>111</v>
       </c>
@@ -2670,8 +2817,11 @@
       <c r="L57">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>113</v>
       </c>
@@ -2689,8 +2839,11 @@
       <c r="L58">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M58">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>115</v>
       </c>
@@ -2708,8 +2861,11 @@
       <c r="L59">
         <v>70</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M59">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>117</v>
       </c>
@@ -2727,8 +2883,11 @@
       <c r="L60">
         <v>75</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>119</v>
       </c>
@@ -2746,8 +2905,11 @@
       <c r="L61">
         <v>65</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M61">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>121</v>
       </c>
@@ -2765,8 +2927,11 @@
       <c r="L62">
         <v>80</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M62">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>123</v>
       </c>
@@ -2782,7 +2947,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>125</v>
       </c>
@@ -2800,8 +2965,11 @@
       <c r="L64">
         <v>70</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M64">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>127</v>
       </c>
@@ -2819,8 +2987,11 @@
       <c r="L65">
         <v>70</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M65">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>129</v>
       </c>
@@ -2838,8 +3009,11 @@
       <c r="L66">
         <v>85</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>131</v>
       </c>
@@ -2857,8 +3031,11 @@
       <c r="L67">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M67">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>133</v>
       </c>
@@ -2874,7 +3051,7 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>135</v>
       </c>
@@ -2890,7 +3067,7 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>137</v>
       </c>
@@ -2908,8 +3085,11 @@
       <c r="L70">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>139</v>
       </c>
@@ -2927,8 +3107,11 @@
       <c r="L71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>141</v>
       </c>
@@ -2946,8 +3129,11 @@
       <c r="L72">
         <v>65</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M72">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>143</v>
       </c>
@@ -2965,8 +3151,11 @@
       <c r="L73">
         <v>70</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M73">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>145</v>
       </c>
@@ -2984,8 +3173,11 @@
       <c r="L74">
         <v>80</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M74">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>147</v>
       </c>
@@ -3003,8 +3195,11 @@
       <c r="L75">
         <v>70</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M75">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>149</v>
       </c>
@@ -3019,8 +3214,11 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
-    </row>
-    <row r="77" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M76">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>151</v>
       </c>
@@ -3038,8 +3236,11 @@
       <c r="L77">
         <v>70</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M77">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>153</v>
       </c>
@@ -3057,8 +3258,11 @@
       <c r="L78">
         <v>80</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M78">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>155</v>
       </c>
@@ -3076,8 +3280,11 @@
       <c r="L79">
         <v>90</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M79">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>157</v>
       </c>
@@ -3095,8 +3302,11 @@
       <c r="L80">
         <v>75</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M80">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>159</v>
       </c>
@@ -3114,8 +3324,11 @@
       <c r="L81">
         <v>70</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M81">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>161</v>
       </c>
@@ -3133,8 +3346,11 @@
       <c r="L82">
         <v>85</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M82">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>163</v>
       </c>
@@ -3152,8 +3368,11 @@
       <c r="L83">
         <v>85</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M83">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>165</v>
       </c>
@@ -3171,8 +3390,11 @@
       <c r="L84">
         <v>100</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M84">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>167</v>
       </c>
@@ -3190,8 +3412,11 @@
       <c r="L85">
         <v>95</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M85">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>169</v>
       </c>
@@ -3209,8 +3434,11 @@
       <c r="L86">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M86">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>174</v>
       </c>
@@ -3228,8 +3456,11 @@
       <c r="L87">
         <v>75</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M87">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>176</v>
       </c>
@@ -3247,8 +3478,11 @@
       <c r="L88">
         <v>65</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M88">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>178</v>
       </c>
@@ -3266,8 +3500,11 @@
       <c r="L89">
         <v>80</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M89">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>180</v>
       </c>
@@ -3285,8 +3522,11 @@
       <c r="L90">
         <v>70</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M90">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>182</v>
       </c>
@@ -3304,8 +3544,11 @@
       <c r="L91">
         <v>80</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M91">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>184</v>
       </c>
@@ -3323,8 +3566,11 @@
       <c r="L92">
         <v>80</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M92">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>186</v>
       </c>
@@ -3340,7 +3586,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>188</v>
       </c>
@@ -3358,8 +3604,11 @@
       <c r="L94">
         <v>70</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M94">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>190</v>
       </c>
@@ -3377,8 +3626,11 @@
       <c r="L95">
         <v>65</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M95">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>192</v>
       </c>
@@ -3396,8 +3648,11 @@
       <c r="L96">
         <v>70</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M96">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>194</v>
       </c>
@@ -3415,8 +3670,11 @@
       <c r="L97">
         <v>85</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M97">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>196</v>
       </c>
@@ -3434,8 +3692,11 @@
       <c r="L98">
         <v>50</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M98">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>198</v>
       </c>
@@ -3451,7 +3712,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>200</v>
       </c>
@@ -3467,7 +3728,7 @@
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>202</v>
       </c>
@@ -3485,8 +3746,11 @@
       <c r="L101">
         <v>90</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>204</v>
       </c>
@@ -3504,8 +3768,11 @@
       <c r="L102">
         <v>75</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M102">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>206</v>
       </c>
@@ -3523,8 +3790,11 @@
       <c r="L103">
         <v>80</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M103">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>208</v>
       </c>
@@ -3540,7 +3810,7 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>210</v>
       </c>
@@ -3558,8 +3828,11 @@
       <c r="L105">
         <v>70</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M105">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>212</v>
       </c>
@@ -3577,8 +3850,11 @@
       <c r="L106">
         <v>75</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M106">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>214</v>
       </c>
@@ -3596,8 +3872,11 @@
       <c r="L107">
         <v>85</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M107">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>216</v>
       </c>
@@ -3615,8 +3894,11 @@
       <c r="L108">
         <v>85</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M108">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>218</v>
       </c>
@@ -3634,8 +3916,11 @@
       <c r="L109">
         <v>70</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M109">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>220</v>
       </c>
@@ -3653,8 +3938,11 @@
       <c r="L110">
         <v>50</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M110">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>222</v>
       </c>
@@ -3672,8 +3960,11 @@
       <c r="L111">
         <v>70</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M111">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>224</v>
       </c>
@@ -3689,7 +3980,7 @@
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>226</v>
       </c>
@@ -3707,8 +3998,11 @@
       <c r="L113">
         <v>65</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M113">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>228</v>
       </c>
@@ -3726,8 +4020,11 @@
       <c r="L114">
         <v>55</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M114">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>230</v>
       </c>
@@ -3746,7 +4043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>232</v>
       </c>
@@ -3764,8 +4061,11 @@
       <c r="L116">
         <v>80</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M116">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>234</v>
       </c>
@@ -3783,8 +4083,11 @@
       <c r="L117">
         <v>85</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M117">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>236</v>
       </c>
@@ -3803,7 +4106,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>238</v>
       </c>
@@ -3821,8 +4124,11 @@
       <c r="L119">
         <v>65</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M119">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>240</v>
       </c>
@@ -3840,8 +4146,11 @@
       <c r="L120">
         <v>70</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M120">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>242</v>
       </c>
@@ -3859,8 +4168,11 @@
       <c r="L121">
         <v>60</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M121">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>244</v>
       </c>
@@ -3878,8 +4190,11 @@
       <c r="L122">
         <v>75</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M122">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>246</v>
       </c>
@@ -3897,8 +4212,11 @@
       <c r="L123">
         <v>85</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M123">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>248</v>
       </c>
@@ -3916,8 +4234,11 @@
       <c r="L124">
         <v>40</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M124">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>250</v>
       </c>
@@ -3935,8 +4256,11 @@
       <c r="L125">
         <v>90</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M125">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>252</v>
       </c>
@@ -3954,8 +4278,11 @@
       <c r="L126">
         <v>85</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M126">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>254</v>
       </c>
@@ -3973,8 +4300,11 @@
       <c r="L127">
         <v>80</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M127">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>256</v>
       </c>
@@ -3992,8 +4322,11 @@
       <c r="L128">
         <v>75</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M128">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>258</v>
       </c>
@@ -4011,8 +4344,11 @@
       <c r="L129">
         <v>80</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M129">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>260</v>
       </c>
@@ -4030,8 +4366,11 @@
       <c r="L130">
         <v>75</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M130">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>262</v>
       </c>
@@ -4049,8 +4388,11 @@
       <c r="L131">
         <v>85</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M131">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>264</v>
       </c>
@@ -4068,8 +4410,11 @@
       <c r="L132">
         <v>70</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M132">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>266</v>
       </c>
@@ -4087,8 +4432,11 @@
       <c r="L133">
         <v>70</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M133">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>268</v>
       </c>
@@ -4106,8 +4454,11 @@
       <c r="L134">
         <v>65</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M134">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>270</v>
       </c>
@@ -4122,8 +4473,11 @@
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
-    </row>
-    <row r="136" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M135">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>272</v>
       </c>
@@ -4141,8 +4495,11 @@
       <c r="L136">
         <v>75</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M136">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>274</v>
       </c>
@@ -4160,8 +4517,11 @@
       <c r="L137">
         <v>65</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M137">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>276</v>
       </c>
@@ -4179,8 +4539,11 @@
       <c r="L138">
         <v>35</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M138">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>278</v>
       </c>
@@ -4198,8 +4561,11 @@
       <c r="L139">
         <v>70</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M139">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>280</v>
       </c>
@@ -4217,8 +4583,11 @@
       <c r="L140">
         <v>75</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M140">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>282</v>
       </c>
@@ -4236,8 +4605,11 @@
       <c r="L141">
         <v>75</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M141">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>284</v>
       </c>
@@ -4255,8 +4627,11 @@
       <c r="L142">
         <v>85</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M142">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>286</v>
       </c>
@@ -4274,8 +4649,11 @@
       <c r="L143">
         <v>60</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M143">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>288</v>
       </c>
@@ -4293,8 +4671,11 @@
       <c r="L144">
         <v>85</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M144">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>290</v>
       </c>
@@ -4312,8 +4693,11 @@
       <c r="L145">
         <v>45</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M145">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>292</v>
       </c>
@@ -4331,8 +4715,11 @@
       <c r="L146">
         <v>65</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M146">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>294</v>
       </c>
@@ -4350,8 +4737,11 @@
       <c r="L147">
         <v>70</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>296</v>
       </c>
@@ -4369,8 +4759,11 @@
       <c r="L148">
         <v>80</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M148">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>298</v>
       </c>
@@ -4388,8 +4781,11 @@
       <c r="L149">
         <v>85</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M149">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>300</v>
       </c>
@@ -4407,8 +4803,11 @@
       <c r="L150">
         <v>85</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M150">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>302</v>
       </c>
@@ -4426,8 +4825,11 @@
       <c r="L151">
         <v>55</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M151">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>304</v>
       </c>
@@ -4445,8 +4847,11 @@
       <c r="L152">
         <v>75</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M152">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>306</v>
       </c>
@@ -4464,8 +4869,11 @@
       <c r="L153">
         <v>90</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M153">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>308</v>
       </c>
@@ -4483,8 +4891,11 @@
       <c r="L154">
         <v>45</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M154">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>310</v>
       </c>
@@ -4503,7 +4914,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>312</v>
       </c>
@@ -4521,8 +4932,11 @@
       <c r="L156">
         <v>65</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M156">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>314</v>
       </c>
@@ -4540,8 +4954,11 @@
       <c r="L157">
         <v>45</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M157">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -4551,7 +4968,7 @@
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
     </row>
-    <row r="159" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
         <v>8</v>
       </c>
@@ -4563,7 +4980,7 @@
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -4605,8 +5022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4724,6 +5141,9 @@
       <c r="L6">
         <v>85</v>
       </c>
+      <c r="M6">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -4743,6 +5163,9 @@
       <c r="L7">
         <v>75</v>
       </c>
+      <c r="M7">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -4759,6 +5182,9 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
+      <c r="L8">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -4793,6 +5219,9 @@
       <c r="H10" s="2"/>
       <c r="L10">
         <v>70</v>
+      </c>
+      <c r="M10">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4813,6 +5242,9 @@
       <c r="L11">
         <v>90</v>
       </c>
+      <c r="M11">
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -4832,6 +5264,9 @@
       <c r="L12">
         <v>30</v>
       </c>
+      <c r="M12">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -4866,6 +5301,9 @@
       <c r="H14" s="2"/>
       <c r="L14">
         <v>75</v>
+      </c>
+      <c r="M14">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/多核助教成绩单.xlsx
+++ b/多核助教成绩单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144" tabRatio="982" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144" tabRatio="982"/>
   </bookViews>
   <sheets>
     <sheet name="多核" sheetId="15" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">多核!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'多核 (毕)'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1587,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N161"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="P157" sqref="P157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1704,11 +1704,17 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
+      <c r="K6">
+        <v>90</v>
+      </c>
       <c r="L6">
         <v>80</v>
       </c>
       <c r="M6">
         <v>70</v>
+      </c>
+      <c r="N6">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1726,11 +1732,17 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
+      <c r="K7">
+        <v>85</v>
+      </c>
       <c r="L7">
         <v>75</v>
       </c>
       <c r="M7">
         <v>70</v>
+      </c>
+      <c r="N7">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1748,11 +1760,17 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
+      <c r="K8">
+        <v>80</v>
+      </c>
       <c r="L8">
         <v>75</v>
       </c>
       <c r="M8">
         <v>90</v>
+      </c>
+      <c r="N8">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1770,11 +1788,17 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
+      <c r="K9">
+        <v>80</v>
+      </c>
       <c r="L9">
         <v>70</v>
       </c>
       <c r="M9">
         <v>30</v>
+      </c>
+      <c r="N9">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1792,11 +1816,17 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
+      <c r="K10">
+        <v>90</v>
+      </c>
       <c r="L10">
         <v>65</v>
       </c>
       <c r="M10">
         <v>60</v>
+      </c>
+      <c r="N10">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1814,11 +1844,17 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
+      <c r="K11">
+        <v>70</v>
+      </c>
       <c r="L11">
         <v>60</v>
       </c>
       <c r="M11">
         <v>70</v>
+      </c>
+      <c r="N11">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1836,11 +1872,17 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
+      <c r="K12">
+        <v>80</v>
+      </c>
       <c r="L12">
         <v>65</v>
       </c>
       <c r="M12">
         <v>80</v>
+      </c>
+      <c r="N12">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1858,11 +1900,17 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
+      <c r="K13">
+        <v>95</v>
+      </c>
       <c r="L13">
         <v>55</v>
       </c>
       <c r="M13">
         <v>70</v>
+      </c>
+      <c r="N13">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1880,11 +1928,17 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
+      <c r="K14">
+        <v>95</v>
+      </c>
       <c r="L14">
         <v>85</v>
       </c>
       <c r="M14">
         <v>80</v>
+      </c>
+      <c r="N14">
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1902,11 +1956,17 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
+      <c r="K15">
+        <v>95</v>
+      </c>
       <c r="L15">
         <v>80</v>
       </c>
       <c r="M15">
         <v>70</v>
+      </c>
+      <c r="N15">
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1924,14 +1984,20 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
+      <c r="K16">
+        <v>80</v>
+      </c>
       <c r="L16">
         <v>65</v>
       </c>
       <c r="M16">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -1946,14 +2012,20 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
+      <c r="K17">
+        <v>90</v>
+      </c>
       <c r="L17">
         <v>65</v>
       </c>
       <c r="M17">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1968,14 +2040,20 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
+      <c r="K18">
+        <v>95</v>
+      </c>
       <c r="L18">
         <v>75</v>
       </c>
       <c r="M18">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1990,14 +2068,20 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
+      <c r="K19">
+        <v>95</v>
+      </c>
       <c r="L19">
         <v>85</v>
       </c>
       <c r="M19">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -2012,14 +2096,20 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
+      <c r="K20">
+        <v>80</v>
+      </c>
       <c r="L20">
         <v>60</v>
       </c>
       <c r="M20">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -2034,8 +2124,11 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -2050,14 +2143,20 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
+      <c r="K22">
+        <v>90</v>
+      </c>
       <c r="L22">
         <v>100</v>
       </c>
       <c r="M22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -2072,14 +2171,20 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
+      <c r="K23">
+        <v>95</v>
+      </c>
       <c r="L23">
         <v>75</v>
       </c>
       <c r="M23">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N23">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -2094,14 +2199,20 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
+      <c r="K24">
+        <v>90</v>
+      </c>
       <c r="L24">
         <v>75</v>
       </c>
       <c r="M24">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -2116,14 +2227,20 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
+      <c r="K25">
+        <v>85</v>
+      </c>
       <c r="L25">
         <v>75</v>
       </c>
       <c r="M25">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -2138,14 +2255,20 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
+      <c r="K26">
+        <v>85</v>
+      </c>
       <c r="L26">
         <v>80</v>
       </c>
       <c r="M26">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N26">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
@@ -2160,14 +2283,20 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
+      <c r="K27">
+        <v>90</v>
+      </c>
       <c r="L27">
         <v>70</v>
       </c>
       <c r="M27">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N27">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
@@ -2182,14 +2311,20 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
+      <c r="K28">
+        <v>80</v>
+      </c>
       <c r="L28">
         <v>70</v>
       </c>
       <c r="M28">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N28">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>55</v>
       </c>
@@ -2204,14 +2339,20 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
+      <c r="K29">
+        <v>95</v>
+      </c>
       <c r="L29">
         <v>75</v>
       </c>
       <c r="M29">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N29">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
@@ -2226,14 +2367,20 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
+      <c r="K30">
+        <v>90</v>
+      </c>
       <c r="L30">
         <v>90</v>
       </c>
       <c r="M30">
         <v>90</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N30">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>59</v>
       </c>
@@ -2248,14 +2395,20 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
+      <c r="K31">
+        <v>95</v>
+      </c>
       <c r="L31">
         <v>70</v>
       </c>
       <c r="M31">
         <v>70</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>61</v>
       </c>
@@ -2270,14 +2423,20 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
+      <c r="K32">
+        <v>70</v>
+      </c>
       <c r="L32">
         <v>80</v>
       </c>
       <c r="M32">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N32">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
@@ -2292,14 +2451,20 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
+      <c r="K33">
+        <v>98</v>
+      </c>
       <c r="L33">
         <v>75</v>
       </c>
       <c r="M33">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N33">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>65</v>
       </c>
@@ -2314,14 +2479,20 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
+      <c r="K34">
+        <v>75</v>
+      </c>
       <c r="L34">
         <v>75</v>
       </c>
       <c r="M34">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N34">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>67</v>
       </c>
@@ -2336,14 +2507,20 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
+      <c r="K35">
+        <v>80</v>
+      </c>
       <c r="L35">
         <v>60</v>
       </c>
       <c r="M35">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
@@ -2358,14 +2535,20 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
+      <c r="K36">
+        <v>90</v>
+      </c>
       <c r="L36">
         <v>70</v>
       </c>
       <c r="M36">
         <v>90</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N36">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
@@ -2380,14 +2563,20 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
+      <c r="K37">
+        <v>85</v>
+      </c>
       <c r="L37">
         <v>80</v>
       </c>
       <c r="M37">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N37">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>73</v>
       </c>
@@ -2402,14 +2591,20 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
+      <c r="K38">
+        <v>50</v>
+      </c>
       <c r="L38">
         <v>65</v>
       </c>
       <c r="M38">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N38">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>75</v>
       </c>
@@ -2425,7 +2620,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>77</v>
       </c>
@@ -2440,14 +2635,20 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
+      <c r="K40">
+        <v>85</v>
+      </c>
       <c r="L40">
         <v>60</v>
       </c>
       <c r="M40">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N40">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>79</v>
       </c>
@@ -2462,14 +2663,20 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
+      <c r="K41">
+        <v>90</v>
+      </c>
       <c r="L41">
         <v>80</v>
       </c>
       <c r="M41">
         <v>60</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N41">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>81</v>
       </c>
@@ -2490,8 +2697,11 @@
       <c r="M42">
         <v>70</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>83</v>
       </c>
@@ -2506,14 +2716,20 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
+      <c r="K43">
+        <v>80</v>
+      </c>
       <c r="L43">
         <v>65</v>
       </c>
       <c r="M43">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N43">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>85</v>
       </c>
@@ -2528,14 +2744,20 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
+      <c r="K44">
+        <v>85</v>
+      </c>
       <c r="L44">
         <v>60</v>
       </c>
       <c r="M44">
         <v>60</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N44">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>87</v>
       </c>
@@ -2550,14 +2772,20 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
+      <c r="K45">
+        <v>75</v>
+      </c>
       <c r="L45">
         <v>95</v>
       </c>
       <c r="M45">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>89</v>
       </c>
@@ -2572,14 +2800,20 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
+      <c r="K46">
+        <v>90</v>
+      </c>
       <c r="L46">
         <v>80</v>
       </c>
       <c r="M46">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N46">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>91</v>
       </c>
@@ -2594,14 +2828,20 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
+      <c r="K47">
+        <v>85</v>
+      </c>
       <c r="L47">
         <v>65</v>
       </c>
       <c r="M47">
         <v>60</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N47">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>93</v>
       </c>
@@ -2616,14 +2856,20 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
+      <c r="K48">
+        <v>80</v>
+      </c>
       <c r="L48">
         <v>70</v>
       </c>
       <c r="M48">
         <v>80</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N48">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>95</v>
       </c>
@@ -2638,14 +2884,20 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
+      <c r="K49">
+        <v>85</v>
+      </c>
       <c r="L49">
         <v>85</v>
       </c>
       <c r="M49">
         <v>60</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N49">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>97</v>
       </c>
@@ -2660,14 +2912,20 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
+      <c r="K50">
+        <v>90</v>
+      </c>
       <c r="L50">
         <v>80</v>
       </c>
       <c r="M50">
         <v>70</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N50">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>99</v>
       </c>
@@ -2688,8 +2946,11 @@
       <c r="M51">
         <v>70</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N51">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>101</v>
       </c>
@@ -2704,14 +2965,20 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
+      <c r="K52">
+        <v>85</v>
+      </c>
       <c r="L52">
         <v>75</v>
       </c>
       <c r="M52">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N52">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>103</v>
       </c>
@@ -2726,14 +2993,20 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
+      <c r="K53">
+        <v>0</v>
+      </c>
       <c r="L53">
         <v>70</v>
       </c>
       <c r="M53">
         <v>60</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N53">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>105</v>
       </c>
@@ -2748,14 +3021,20 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
+      <c r="K54">
+        <v>75</v>
+      </c>
       <c r="L54">
         <v>70</v>
       </c>
       <c r="M54">
         <v>60</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N54">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>107</v>
       </c>
@@ -2770,14 +3049,20 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
+      <c r="K55">
+        <v>0</v>
+      </c>
       <c r="L55">
         <v>90</v>
       </c>
       <c r="M55">
         <v>70</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N55">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>109</v>
       </c>
@@ -2792,14 +3077,20 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
+      <c r="K56">
+        <v>90</v>
+      </c>
       <c r="L56">
         <v>60</v>
       </c>
       <c r="M56">
         <v>60</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N56">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>111</v>
       </c>
@@ -2814,14 +3105,20 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
+      <c r="K57">
+        <v>95</v>
+      </c>
       <c r="L57">
         <v>60</v>
       </c>
       <c r="M57">
         <v>30</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N57">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>113</v>
       </c>
@@ -2836,14 +3133,20 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
+      <c r="K58">
+        <v>85</v>
+      </c>
       <c r="L58">
         <v>60</v>
       </c>
       <c r="M58">
         <v>40</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N58">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>115</v>
       </c>
@@ -2858,14 +3161,20 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
+      <c r="K59">
+        <v>95</v>
+      </c>
       <c r="L59">
         <v>70</v>
       </c>
       <c r="M59">
         <v>40</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>117</v>
       </c>
@@ -2880,14 +3189,20 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
+      <c r="K60">
+        <v>95</v>
+      </c>
       <c r="L60">
         <v>75</v>
       </c>
       <c r="M60">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N60">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>119</v>
       </c>
@@ -2902,14 +3217,20 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
+      <c r="K61">
+        <v>85</v>
+      </c>
       <c r="L61">
         <v>65</v>
       </c>
       <c r="M61">
         <v>30</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N61">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>121</v>
       </c>
@@ -2924,14 +3245,20 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
+      <c r="K62">
+        <v>80</v>
+      </c>
       <c r="L62">
         <v>80</v>
       </c>
       <c r="M62">
         <v>70</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N62">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>123</v>
       </c>
@@ -2946,8 +3273,11 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K63">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>125</v>
       </c>
@@ -2962,14 +3292,20 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
+      <c r="K64">
+        <v>85</v>
+      </c>
       <c r="L64">
         <v>70</v>
       </c>
       <c r="M64">
         <v>80</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N64">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>127</v>
       </c>
@@ -2984,14 +3320,20 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
+      <c r="K65">
+        <v>0</v>
+      </c>
       <c r="L65">
         <v>70</v>
       </c>
       <c r="M65">
         <v>60</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N65">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>129</v>
       </c>
@@ -3006,6 +3348,9 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
+      <c r="K66">
+        <v>0</v>
+      </c>
       <c r="L66">
         <v>85</v>
       </c>
@@ -3013,7 +3358,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>131</v>
       </c>
@@ -3028,14 +3373,20 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
+      <c r="K67">
+        <v>75</v>
+      </c>
       <c r="L67">
         <v>70</v>
       </c>
       <c r="M67">
         <v>60</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N67">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>133</v>
       </c>
@@ -3050,8 +3401,11 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-    </row>
-    <row r="69" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K68">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>135</v>
       </c>
@@ -3066,8 +3420,11 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K69">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>137</v>
       </c>
@@ -3082,14 +3439,20 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
+      <c r="K70">
+        <v>90</v>
+      </c>
       <c r="L70">
         <v>75</v>
       </c>
       <c r="M70">
         <v>80</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N70">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>139</v>
       </c>
@@ -3104,14 +3467,20 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
+      <c r="K71">
+        <v>85</v>
+      </c>
       <c r="L71">
         <v>70</v>
       </c>
       <c r="M71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N71">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>141</v>
       </c>
@@ -3126,14 +3495,20 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
+      <c r="K72">
+        <v>75</v>
+      </c>
       <c r="L72">
         <v>65</v>
       </c>
       <c r="M72">
         <v>40</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N72">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>143</v>
       </c>
@@ -3148,14 +3523,20 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
+      <c r="K73">
+        <v>85</v>
+      </c>
       <c r="L73">
         <v>70</v>
       </c>
       <c r="M73">
         <v>50</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N73">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>145</v>
       </c>
@@ -3170,14 +3551,20 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
+      <c r="K74">
+        <v>85</v>
+      </c>
       <c r="L74">
         <v>80</v>
       </c>
       <c r="M74">
         <v>30</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N74">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>147</v>
       </c>
@@ -3192,14 +3579,20 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
+      <c r="K75">
+        <v>0</v>
+      </c>
       <c r="L75">
         <v>70</v>
       </c>
       <c r="M75">
         <v>40</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N75">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>149</v>
       </c>
@@ -3214,11 +3607,17 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
+      <c r="K76">
+        <v>0</v>
+      </c>
       <c r="M76">
         <v>60</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N76">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>151</v>
       </c>
@@ -3233,14 +3632,20 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
+      <c r="K77">
+        <v>85</v>
+      </c>
       <c r="L77">
         <v>70</v>
       </c>
       <c r="M77">
         <v>70</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N77">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>153</v>
       </c>
@@ -3255,14 +3660,20 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
+      <c r="K78">
+        <v>95</v>
+      </c>
       <c r="L78">
         <v>80</v>
       </c>
       <c r="M78">
         <v>70</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N78">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>155</v>
       </c>
@@ -3277,14 +3688,20 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
+      <c r="K79">
+        <v>90</v>
+      </c>
       <c r="L79">
         <v>90</v>
       </c>
       <c r="M79">
         <v>80</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N79">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>157</v>
       </c>
@@ -3299,14 +3716,20 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
+      <c r="K80">
+        <v>98</v>
+      </c>
       <c r="L80">
         <v>75</v>
       </c>
       <c r="M80">
         <v>70</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N80">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>159</v>
       </c>
@@ -3321,14 +3744,20 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
+      <c r="K81">
+        <v>98</v>
+      </c>
       <c r="L81">
         <v>70</v>
       </c>
       <c r="M81">
         <v>60</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N81">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>161</v>
       </c>
@@ -3343,14 +3772,20 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
+      <c r="K82">
+        <v>90</v>
+      </c>
       <c r="L82">
         <v>85</v>
       </c>
       <c r="M82">
         <v>60</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N82">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>163</v>
       </c>
@@ -3365,14 +3800,20 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
+      <c r="K83">
+        <v>90</v>
+      </c>
       <c r="L83">
         <v>85</v>
       </c>
       <c r="M83">
         <v>70</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N83">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>165</v>
       </c>
@@ -3387,14 +3828,20 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
+      <c r="K84">
+        <v>95</v>
+      </c>
       <c r="L84">
         <v>100</v>
       </c>
       <c r="M84">
         <v>70</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N84">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>167</v>
       </c>
@@ -3409,14 +3856,20 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
+      <c r="K85">
+        <v>95</v>
+      </c>
       <c r="L85">
         <v>95</v>
       </c>
       <c r="M85">
         <v>70</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N85">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>169</v>
       </c>
@@ -3431,14 +3884,20 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
+      <c r="K86">
+        <v>90</v>
+      </c>
       <c r="L86">
         <v>85</v>
       </c>
       <c r="M86">
         <v>90</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>174</v>
       </c>
@@ -3453,14 +3912,20 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
+      <c r="K87">
+        <v>90</v>
+      </c>
       <c r="L87">
         <v>75</v>
       </c>
       <c r="M87">
         <v>70</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N87">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>176</v>
       </c>
@@ -3475,6 +3940,9 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
+      <c r="K88">
+        <v>85</v>
+      </c>
       <c r="L88">
         <v>65</v>
       </c>
@@ -3482,7 +3950,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>178</v>
       </c>
@@ -3497,14 +3965,20 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
+      <c r="K89">
+        <v>50</v>
+      </c>
       <c r="L89">
         <v>80</v>
       </c>
       <c r="M89">
         <v>35</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N89">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>180</v>
       </c>
@@ -3525,8 +3999,11 @@
       <c r="M90">
         <v>70</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N90">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>182</v>
       </c>
@@ -3541,14 +4018,20 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
+      <c r="K91">
+        <v>50</v>
+      </c>
       <c r="L91">
         <v>80</v>
       </c>
       <c r="M91">
         <v>70</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N91">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>184</v>
       </c>
@@ -3563,14 +4046,20 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
+      <c r="K92">
+        <v>95</v>
+      </c>
       <c r="L92">
         <v>80</v>
       </c>
       <c r="M92">
         <v>80</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N92">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>186</v>
       </c>
@@ -3586,7 +4075,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>188</v>
       </c>
@@ -3601,14 +4090,20 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
+      <c r="K94">
+        <v>85</v>
+      </c>
       <c r="L94">
         <v>70</v>
       </c>
       <c r="M94">
         <v>80</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N94">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>190</v>
       </c>
@@ -3623,14 +4118,20 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
+      <c r="K95">
+        <v>95</v>
+      </c>
       <c r="L95">
         <v>65</v>
       </c>
       <c r="M95">
         <v>70</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N95">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>192</v>
       </c>
@@ -3645,14 +4146,20 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
+      <c r="K96">
+        <v>90</v>
+      </c>
       <c r="L96">
         <v>70</v>
       </c>
       <c r="M96">
         <v>70</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N96">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>194</v>
       </c>
@@ -3667,14 +4174,20 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
+      <c r="K97">
+        <v>90</v>
+      </c>
       <c r="L97">
         <v>85</v>
       </c>
       <c r="M97">
         <v>80</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N97">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>196</v>
       </c>
@@ -3689,14 +4202,20 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
+      <c r="K98">
+        <v>80</v>
+      </c>
       <c r="L98">
         <v>50</v>
       </c>
       <c r="M98">
         <v>70</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N98">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>198</v>
       </c>
@@ -3712,7 +4231,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>200</v>
       </c>
@@ -3727,8 +4246,11 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
-    </row>
-    <row r="101" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K100">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>202</v>
       </c>
@@ -3743,14 +4265,20 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
+      <c r="K101">
+        <v>90</v>
+      </c>
       <c r="L101">
         <v>90</v>
       </c>
       <c r="M101">
         <v>80</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N101">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>204</v>
       </c>
@@ -3765,14 +4293,20 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
+      <c r="K102">
+        <v>95</v>
+      </c>
       <c r="L102">
         <v>75</v>
       </c>
       <c r="M102">
         <v>35</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N102">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>206</v>
       </c>
@@ -3787,14 +4321,20 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
+      <c r="K103">
+        <v>75</v>
+      </c>
       <c r="L103">
         <v>80</v>
       </c>
       <c r="M103">
         <v>90</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N103">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>208</v>
       </c>
@@ -3810,7 +4350,7 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
     </row>
-    <row r="105" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>210</v>
       </c>
@@ -3825,14 +4365,20 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
+      <c r="K105">
+        <v>85</v>
+      </c>
       <c r="L105">
         <v>70</v>
       </c>
       <c r="M105">
         <v>50</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N105">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>212</v>
       </c>
@@ -3847,14 +4393,20 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
+      <c r="K106">
+        <v>90</v>
+      </c>
       <c r="L106">
         <v>75</v>
       </c>
       <c r="M106">
         <v>70</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N106">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>214</v>
       </c>
@@ -3869,14 +4421,20 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
+      <c r="K107">
+        <v>95</v>
+      </c>
       <c r="L107">
         <v>85</v>
       </c>
       <c r="M107">
         <v>90</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N107">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>216</v>
       </c>
@@ -3891,14 +4449,20 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
+      <c r="K108">
+        <v>95</v>
+      </c>
       <c r="L108">
         <v>85</v>
       </c>
       <c r="M108">
         <v>90</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N108">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>218</v>
       </c>
@@ -3913,14 +4477,20 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
+      <c r="K109">
+        <v>80</v>
+      </c>
       <c r="L109">
         <v>70</v>
       </c>
       <c r="M109">
         <v>80</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N109">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>220</v>
       </c>
@@ -3935,14 +4505,20 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
+      <c r="K110">
+        <v>95</v>
+      </c>
       <c r="L110">
         <v>50</v>
       </c>
       <c r="M110">
         <v>60</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N110">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>222</v>
       </c>
@@ -3957,14 +4533,20 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
+      <c r="K111">
+        <v>0</v>
+      </c>
       <c r="L111">
         <v>70</v>
       </c>
       <c r="M111">
         <v>70</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N111">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>224</v>
       </c>
@@ -3979,8 +4561,11 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
-    </row>
-    <row r="113" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K112">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>226</v>
       </c>
@@ -3995,14 +4580,20 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
+      <c r="K113">
+        <v>0</v>
+      </c>
       <c r="L113">
         <v>65</v>
       </c>
       <c r="M113">
         <v>60</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N113">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>228</v>
       </c>
@@ -4017,14 +4608,20 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
+      <c r="K114">
+        <v>80</v>
+      </c>
       <c r="L114">
         <v>55</v>
       </c>
       <c r="M114">
         <v>50</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N114">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>230</v>
       </c>
@@ -4039,11 +4636,14 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
+      <c r="K115">
+        <v>0</v>
+      </c>
       <c r="L115">
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>232</v>
       </c>
@@ -4058,14 +4658,20 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
+      <c r="K116">
+        <v>95</v>
+      </c>
       <c r="L116">
         <v>80</v>
       </c>
       <c r="M116">
         <v>90</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N116">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>234</v>
       </c>
@@ -4080,14 +4686,20 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
+      <c r="K117">
+        <v>85</v>
+      </c>
       <c r="L117">
         <v>85</v>
       </c>
       <c r="M117">
         <v>60</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N117">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>236</v>
       </c>
@@ -4105,8 +4717,11 @@
       <c r="L118">
         <v>60</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N118">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>238</v>
       </c>
@@ -4121,14 +4736,20 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
+      <c r="K119">
+        <v>0</v>
+      </c>
       <c r="L119">
         <v>65</v>
       </c>
       <c r="M119">
         <v>30</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N119">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>240</v>
       </c>
@@ -4143,14 +4764,20 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
+      <c r="K120">
+        <v>90</v>
+      </c>
       <c r="L120">
         <v>70</v>
       </c>
       <c r="M120">
         <v>30</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N120">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>242</v>
       </c>
@@ -4165,14 +4792,20 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
+      <c r="K121">
+        <v>0</v>
+      </c>
       <c r="L121">
         <v>60</v>
       </c>
       <c r="M121">
         <v>30</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N121">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>244</v>
       </c>
@@ -4187,14 +4820,20 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
+      <c r="K122">
+        <v>95</v>
+      </c>
       <c r="L122">
         <v>75</v>
       </c>
       <c r="M122">
         <v>80</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N122">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>246</v>
       </c>
@@ -4209,14 +4848,20 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
+      <c r="K123">
+        <v>90</v>
+      </c>
       <c r="L123">
         <v>85</v>
       </c>
       <c r="M123">
         <v>70</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N123">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>248</v>
       </c>
@@ -4231,14 +4876,20 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
+      <c r="K124">
+        <v>0</v>
+      </c>
       <c r="L124">
         <v>40</v>
       </c>
       <c r="M124">
         <v>30</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N124">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>250</v>
       </c>
@@ -4253,14 +4904,20 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
+      <c r="K125">
+        <v>85</v>
+      </c>
       <c r="L125">
         <v>90</v>
       </c>
       <c r="M125">
         <v>80</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N125">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>252</v>
       </c>
@@ -4275,14 +4932,20 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
+      <c r="K126">
+        <v>95</v>
+      </c>
       <c r="L126">
         <v>85</v>
       </c>
       <c r="M126">
         <v>80</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N126">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>254</v>
       </c>
@@ -4297,14 +4960,20 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
+      <c r="K127">
+        <v>90</v>
+      </c>
       <c r="L127">
         <v>80</v>
       </c>
       <c r="M127">
         <v>100</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N127">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>256</v>
       </c>
@@ -4319,14 +4988,20 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
+      <c r="K128">
+        <v>85</v>
+      </c>
       <c r="L128">
         <v>75</v>
       </c>
       <c r="M128">
         <v>70</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N128">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>258</v>
       </c>
@@ -4341,14 +5016,20 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
+      <c r="K129">
+        <v>90</v>
+      </c>
       <c r="L129">
         <v>80</v>
       </c>
       <c r="M129">
         <v>90</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N129">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>260</v>
       </c>
@@ -4363,14 +5044,20 @@
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
+      <c r="K130">
+        <v>90</v>
+      </c>
       <c r="L130">
         <v>75</v>
       </c>
       <c r="M130">
         <v>90</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N130">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>262</v>
       </c>
@@ -4385,14 +5072,20 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
+      <c r="K131">
+        <v>75</v>
+      </c>
       <c r="L131">
         <v>85</v>
       </c>
       <c r="M131">
         <v>90</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N131">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>264</v>
       </c>
@@ -4407,14 +5100,20 @@
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
+      <c r="K132">
+        <v>80</v>
+      </c>
       <c r="L132">
         <v>70</v>
       </c>
       <c r="M132">
         <v>90</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N132">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>266</v>
       </c>
@@ -4429,14 +5128,20 @@
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
+      <c r="K133">
+        <v>60</v>
+      </c>
       <c r="L133">
         <v>70</v>
       </c>
       <c r="M133">
         <v>50</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N133">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>268</v>
       </c>
@@ -4451,14 +5156,20 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
+      <c r="K134">
+        <v>75</v>
+      </c>
       <c r="L134">
         <v>65</v>
       </c>
       <c r="M134">
         <v>30</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N134">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>270</v>
       </c>
@@ -4473,11 +5184,17 @@
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
+      <c r="K135">
+        <v>90</v>
+      </c>
       <c r="M135">
         <v>40</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N135">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>272</v>
       </c>
@@ -4492,14 +5209,20 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
+      <c r="K136">
+        <v>95</v>
+      </c>
       <c r="L136">
         <v>75</v>
       </c>
       <c r="M136">
         <v>70</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N136">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>274</v>
       </c>
@@ -4514,14 +5237,20 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
+      <c r="K137">
+        <v>50</v>
+      </c>
       <c r="L137">
         <v>65</v>
       </c>
       <c r="M137">
         <v>40</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N137">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>276</v>
       </c>
@@ -4536,14 +5265,20 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
+      <c r="K138">
+        <v>95</v>
+      </c>
       <c r="L138">
         <v>35</v>
       </c>
       <c r="M138">
         <v>70</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N138">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>278</v>
       </c>
@@ -4558,14 +5293,20 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
+      <c r="K139">
+        <v>95</v>
+      </c>
       <c r="L139">
         <v>70</v>
       </c>
       <c r="M139">
         <v>60</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N139">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>280</v>
       </c>
@@ -4580,14 +5321,20 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
+      <c r="K140">
+        <v>85</v>
+      </c>
       <c r="L140">
         <v>75</v>
       </c>
       <c r="M140">
         <v>70</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N140">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>282</v>
       </c>
@@ -4602,14 +5349,20 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
+      <c r="K141">
+        <v>90</v>
+      </c>
       <c r="L141">
         <v>75</v>
       </c>
       <c r="M141">
         <v>70</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N141">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>284</v>
       </c>
@@ -4624,14 +5377,20 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
+      <c r="K142">
+        <v>90</v>
+      </c>
       <c r="L142">
         <v>85</v>
       </c>
       <c r="M142">
         <v>80</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N142">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>286</v>
       </c>
@@ -4646,14 +5405,20 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
+      <c r="K143">
+        <v>75</v>
+      </c>
       <c r="L143">
         <v>60</v>
       </c>
       <c r="M143">
         <v>60</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N143">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>288</v>
       </c>
@@ -4668,14 +5433,20 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
+      <c r="K144">
+        <v>90</v>
+      </c>
       <c r="L144">
         <v>85</v>
       </c>
       <c r="M144">
         <v>40</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N144">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>290</v>
       </c>
@@ -4690,14 +5461,20 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
+      <c r="K145">
+        <v>85</v>
+      </c>
       <c r="L145">
         <v>45</v>
       </c>
       <c r="M145">
         <v>40</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N145">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>292</v>
       </c>
@@ -4712,14 +5489,20 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
+      <c r="K146">
+        <v>90</v>
+      </c>
       <c r="L146">
         <v>65</v>
       </c>
       <c r="M146">
         <v>80</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N146">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>294</v>
       </c>
@@ -4734,14 +5517,20 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
+      <c r="K147">
+        <v>90</v>
+      </c>
       <c r="L147">
         <v>70</v>
       </c>
       <c r="M147">
         <v>60</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N147">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>296</v>
       </c>
@@ -4756,14 +5545,20 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
+      <c r="K148">
+        <v>85</v>
+      </c>
       <c r="L148">
         <v>80</v>
       </c>
       <c r="M148">
         <v>80</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N148">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>298</v>
       </c>
@@ -4778,14 +5573,20 @@
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
+      <c r="K149">
+        <v>95</v>
+      </c>
       <c r="L149">
         <v>85</v>
       </c>
       <c r="M149">
         <v>70</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N149">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>300</v>
       </c>
@@ -4800,14 +5601,20 @@
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
+      <c r="K150">
+        <v>85</v>
+      </c>
       <c r="L150">
         <v>85</v>
       </c>
       <c r="M150">
         <v>80</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N150">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>302</v>
       </c>
@@ -4822,14 +5629,20 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
+      <c r="K151">
+        <v>70</v>
+      </c>
       <c r="L151">
         <v>55</v>
       </c>
       <c r="M151">
         <v>30</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N151">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>304</v>
       </c>
@@ -4844,14 +5657,20 @@
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
+      <c r="K152">
+        <v>85</v>
+      </c>
       <c r="L152">
         <v>75</v>
       </c>
       <c r="M152">
         <v>30</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N152">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>306</v>
       </c>
@@ -4866,14 +5685,20 @@
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
+      <c r="K153">
+        <v>95</v>
+      </c>
       <c r="L153">
         <v>90</v>
       </c>
       <c r="M153">
         <v>90</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N153">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>308</v>
       </c>
@@ -4888,14 +5713,20 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
+      <c r="K154">
+        <v>95</v>
+      </c>
       <c r="L154">
         <v>45</v>
       </c>
       <c r="M154">
         <v>30</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N154">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>310</v>
       </c>
@@ -4910,11 +5741,14 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
+      <c r="K155">
+        <v>0</v>
+      </c>
       <c r="L155">
         <v>80</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>312</v>
       </c>
@@ -4929,14 +5763,20 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
+      <c r="K156">
+        <v>85</v>
+      </c>
       <c r="L156">
         <v>65</v>
       </c>
       <c r="M156">
         <v>30</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N156">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>314</v>
       </c>
@@ -4951,14 +5791,20 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
+      <c r="K157">
+        <v>0</v>
+      </c>
       <c r="L157">
         <v>45</v>
       </c>
       <c r="M157">
         <v>30</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N157">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -4968,7 +5814,7 @@
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
     </row>
-    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
         <v>8</v>
       </c>
@@ -4980,7 +5826,7 @@
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -5022,8 +5868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5138,11 +5984,17 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
+      <c r="K6">
+        <v>60</v>
+      </c>
       <c r="L6">
         <v>85</v>
       </c>
       <c r="M6">
         <v>60</v>
+      </c>
+      <c r="N6">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5160,11 +6012,17 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
+      <c r="K7">
+        <v>95</v>
+      </c>
       <c r="L7">
         <v>75</v>
       </c>
       <c r="M7">
         <v>60</v>
+      </c>
+      <c r="N7">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5182,6 +6040,9 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
+      <c r="K8">
+        <v>45</v>
+      </c>
       <c r="L8">
         <v>35</v>
       </c>
@@ -5201,6 +6062,9 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
+      <c r="N9">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -5217,10 +6081,16 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
+      <c r="K10">
+        <v>90</v>
+      </c>
       <c r="L10">
         <v>70</v>
       </c>
       <c r="M10">
+        <v>60</v>
+      </c>
+      <c r="N10">
         <v>60</v>
       </c>
     </row>
@@ -5239,11 +6109,17 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
+      <c r="K11">
+        <v>90</v>
+      </c>
       <c r="L11">
         <v>90</v>
       </c>
       <c r="M11">
         <v>90</v>
+      </c>
+      <c r="N11">
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5261,11 +6137,17 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
+      <c r="K12">
+        <v>90</v>
+      </c>
       <c r="L12">
         <v>30</v>
       </c>
       <c r="M12">
         <v>70</v>
+      </c>
+      <c r="N12">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5283,6 +6165,9 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
+      <c r="K13">
+        <v>95</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -5299,11 +6184,17 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
+      <c r="K14">
+        <v>90</v>
+      </c>
       <c r="L14">
         <v>75</v>
       </c>
       <c r="M14">
         <v>60</v>
+      </c>
+      <c r="N14">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5321,6 +6212,9 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
+      <c r="K15">
+        <v>90</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
